--- a/ControlBook Mensal/clientes/DAPAL.xlsx
+++ b/ControlBook Mensal/clientes/DAPAL.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,743 +567,744 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000539</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 06:17</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 05:20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 15:58</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 18:57</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_DAPAL1 IS DOWN</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53660&amp;EVENTID=381041898</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> A VPN NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE E-MAIL DA NORMALIZAÇÃO DA VPN</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>12:38:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>00:01:35</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>12:39:35</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>10:38:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000601</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 07:47</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 07:37</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47597&amp;EVENTID=383331737</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>00:18:19</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>01:53:19</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>01:58:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000602</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 08:01</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 07:54</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-02 IS DOWN</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47599&amp;EVENTID=383340762</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>00:04:52</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>01:39:52</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>01:41:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000614</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 07:40</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 07:33</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 10:05</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 10:16</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MACAIBA-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47559&amp;EVENTID=384810809</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN NORMALIZOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>02:33:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>00:03:06</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>02:36:06</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>02:32:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000666</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 10:42</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 11:21</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44975.525</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-DAPAL2 IS DOWN</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53671&amp;EVENTID=387140679</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:47:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>00:00:17</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>00:47:17</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>202302000680</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 09:13</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>17/02/2023 09:17</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>44976.40625</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>ANDRE MILEIB</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE NOME</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>BOM DIA,GOSTARIA DE SOLICITAR A ALTERAÇÃO DO NOME DO RAMAL 3946 PARA PAULO. MUITO OBRIGADO</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>MACEIO / AL</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE DE NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/DAPAL.xlsx
+++ b/ControlBook Mensal/clientes/DAPAL.xlsx
@@ -57,14 +57,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,866 +446,866 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000539</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 06:17</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 05:20</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 15:58</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 18:57</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_DAPAL1 IS DOWN</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53660&amp;EVENTID=381041898</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> A VPN NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE E-MAIL DA NORMALIZAÇÃO DA VPN</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>12:38:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>00:01:35</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>12:39:35</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>10:38:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000601</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 07:47</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 07:37</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47597&amp;EVENTID=383331737</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>00:18:19</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>01:53:19</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>01:58:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000602</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 08:01</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 07:54</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-02 IS DOWN</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47599&amp;EVENTID=383340762</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>00:04:52</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>01:39:52</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>01:41:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000614</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 07:40</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 07:33</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 10:05</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 10:16</t>
         </is>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MACAIBA-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47559&amp;EVENTID=384810809</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN NORMALIZOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>02:33:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>00:03:06</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>02:36:06</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>02:32:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000666</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 10:42</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 11:21</t>
         </is>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44975.525</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-DAPAL2 IS DOWN</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53671&amp;EVENTID=387140679</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:47:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>00:00:17</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>00:47:17</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>202302000680</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 09:13</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>17/02/2023 09:17</t>
         </is>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>44976.40625</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>ANDRE MILEIB</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE NOME</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BOM DIA,GOSTARIA DE SOLICITAR A ALTERAÇÃO DO NOME DO RAMAL 3946 PARA PAULO. MUITO OBRIGADO</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>MACEIO / AL</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE DE NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/DAPAL.xlsx
+++ b/ControlBook Mensal/clientes/DAPAL.xlsx
@@ -57,13 +57,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -451,861 +457,861 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000539</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 06:17</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 05:20</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:58</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 18:57</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN_DAPAL1 IS DOWN</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53660&amp;EVENTID=381041898</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> A VPN NORMALIZOU EM NOSSO MONITORAMENTO SEM INTERVENÇÃO TÉCNICA DA BASE. ENVIADO E-MAIL AO CLIENTE E-MAIL DA NORMALIZAÇÃO DA VPN</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>12:38:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>00:01:35</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>12:39:35</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>10:38:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000601</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 07:47</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 07:37</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47597&amp;EVENTID=383331737</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>00:18:19</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>01:53:19</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>01:58:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000602</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 08:01</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 07:54</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 09:35</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>11/02/2023 09:41</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44970.56319444445</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MOSSORO-02 IS DOWN</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47599&amp;EVENTID=383340762</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>MOSSORO / AL</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>01:35:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>00:04:52</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>01:39:52</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>01:41:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000614</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 07:40</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 07:33</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 10:05</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 10:16</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44972.46736111111</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL EBD_MACAIBA-01 IS DOWN</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=47559&amp;EVENTID=384810809</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">VPN NORMALIZOU SEM INTERVENÇÃO DA BASE </t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>02:33:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>00:03:06</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>02:36:06</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>02:32:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000666</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    VPN INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 10:34</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 10:42</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 11:21</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44975.525</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-DAPAL2 IS DOWN</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=53671&amp;EVENTID=387140679</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>MACEIO / ALAGOAS</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:47:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>00:00:17</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>00:47:17</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>00:33:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000680</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 09:13</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>17/02/2023 09:17</t>
         </is>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>44976.40625</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>ANDRE MILEIB</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>ALTERAÇÃO DE NOME</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,GOSTARIA DE SOLICITAR A ALTERAÇÃO DO NOME DO RAMAL 3946 PARA PAULO. MUITO OBRIGADO</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>DAPAL</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>MACEIO / AL</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>REALIZADO AJUSTE DE NOME CONFORME SOLICITADO</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
